--- a/2nd homework (Math_Statistics)/Книга1.xlsx
+++ b/2nd homework (Math_Statistics)/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alibaba\Documents\GitHub\Low-level Programming\Computational-Mathematics\1st lab(Math_Statistics)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alibaba\Documents\GitHub\Low-level Programming\Computational-Mathematics\2nd homework (Math_Statistics)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -393,24 +393,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -435,53 +417,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,13 +1247,13 @@
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
-      <c r="S12" s="32">
+      <c r="S12" s="56">
         <v>6.4957240000000001</v>
       </c>
-      <c r="T12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="36">
+      <c r="T12" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="60">
         <v>106.4957</v>
       </c>
     </row>
@@ -1270,32 +1270,32 @@
       <c r="R13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="37"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="61"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="47">
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="54">
         <v>56</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="49">
         <v>68</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="49">
         <v>80</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="49">
         <v>92</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="49">
         <v>104</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="49">
         <v>116</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="49">
         <v>128</v>
       </c>
       <c r="J14" s="52">
@@ -1303,11 +1303,11 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
@@ -1321,309 +1321,337 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="54"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
         <v>0.9</v>
       </c>
       <c r="B17" s="52"/>
-      <c r="C17" s="44">
+      <c r="C17" s="38">
         <v>2</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="38">
         <v>3</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="38">
         <v>5</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="61">
+      <c r="F17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="44">
         <v>10</v>
       </c>
       <c r="L17">
         <f>A17*K17</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="N17">
+        <f>A17*A17*K17</f>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
         <v>1.3</v>
       </c>
       <c r="B18" s="53"/>
-      <c r="C18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="44">
+      <c r="C18" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38">
         <v>6</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="38">
         <v>3</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="38">
         <v>5</v>
       </c>
-      <c r="G18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="59">
+      <c r="G18" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
         <v>14</v>
       </c>
       <c r="L18">
         <f t="shared" ref="L18:L22" si="8">A18*K18</f>
         <v>18.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="N18">
+        <f t="shared" ref="N18:N22" si="9">A18*A18*K18</f>
+        <v>23.660000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
         <v>1.7</v>
       </c>
       <c r="B19" s="53"/>
-      <c r="C19" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="44">
+      <c r="C19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="38">
         <v>8</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="38">
         <v>15</v>
       </c>
-      <c r="H19" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="59">
+      <c r="H19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
         <v>28</v>
       </c>
       <c r="L19">
         <f t="shared" si="8"/>
         <v>47.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="N19">
+        <f t="shared" si="9"/>
+        <v>80.919999999999987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
         <v>2.1</v>
       </c>
       <c r="B20" s="53"/>
-      <c r="C20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="44">
+      <c r="C20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="38">
         <v>6</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="38">
         <v>9</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="38">
         <v>10</v>
       </c>
-      <c r="I20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="59">
+      <c r="I20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42">
         <v>25</v>
       </c>
       <c r="L20">
         <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="N20">
+        <f t="shared" si="9"/>
+        <v>110.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
         <v>2.5</v>
       </c>
       <c r="B21" s="53"/>
-      <c r="C21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
+      <c r="C21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="38">
         <v>1</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="38">
         <v>6</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="38">
         <v>8</v>
       </c>
-      <c r="J21" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="59">
+      <c r="J21" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="42">
         <v>15</v>
       </c>
       <c r="L21">
         <f t="shared" si="8"/>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49">
+      <c r="N21">
+        <f t="shared" si="9"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
         <v>2.9</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="45">
+      <c r="B22" s="46"/>
+      <c r="C22" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39">
         <v>3</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="39">
         <v>4</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="40">
         <v>1</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="43">
         <v>8</v>
       </c>
       <c r="L22">
         <f t="shared" si="8"/>
         <v>23.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>67.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="45">
+      <c r="B23" s="48"/>
+      <c r="C23" s="39">
         <v>2</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="39">
         <v>9</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="39">
         <v>13</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="39">
         <v>19</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="39">
         <v>25</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="39">
         <v>19</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="39">
         <v>12</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J23" s="40">
         <v>1</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="43">
         <v>100</v>
       </c>
       <c r="L23">
         <f>SUM(L17:L22)</f>
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f>SUM(N17:N22)</f>
+        <v>383.96000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>C14*C23</f>
         <v>112</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:J24" si="9">D14*D23</f>
+        <f t="shared" ref="D24:J24" si="10">D14*D23</f>
         <v>612</v>
       </c>
       <c r="E24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1040</v>
       </c>
       <c r="F24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1748</v>
       </c>
       <c r="G24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2600</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2204</v>
       </c>
       <c r="I24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1536</v>
       </c>
       <c r="J24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="K24">
@@ -1631,42 +1659,94 @@
         <v>9992</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>C23*$A17</f>
         <v>1.8</v>
       </c>
       <c r="D25">
-        <f>D23*$A17+C25</f>
+        <f t="shared" ref="D25:J25" si="11">D23*$A17+C25</f>
         <v>9.9</v>
       </c>
       <c r="E25">
-        <f>E23*$A17+D25</f>
+        <f t="shared" si="11"/>
         <v>21.6</v>
       </c>
       <c r="F25">
-        <f>F23*$A17+E25</f>
+        <f t="shared" si="11"/>
         <v>38.700000000000003</v>
       </c>
       <c r="G25">
-        <f>G23*$A17+F25</f>
+        <f t="shared" si="11"/>
         <v>61.2</v>
       </c>
       <c r="H25">
-        <f>H23*$A17+G25</f>
+        <f t="shared" si="11"/>
         <v>78.300000000000011</v>
       </c>
       <c r="I25">
-        <f>I23*$A17+H25</f>
+        <f t="shared" si="11"/>
         <v>89.100000000000009</v>
       </c>
       <c r="J25">
-        <f>J23*$A17+I25</f>
+        <f t="shared" si="11"/>
         <v>90.000000000000014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>C14*C14*C23</f>
+        <v>6272</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:J27" si="12">D14*D14*D23</f>
+        <v>41616</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="12"/>
+        <v>83200</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="12"/>
+        <v>160816</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="12"/>
+        <v>270400</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>255664</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="12"/>
+        <v>196608</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="12"/>
+        <v>19600</v>
+      </c>
+      <c r="K27">
+        <f>SUM(C27:J27)</f>
+        <v>1034176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f>1/99*(K27-(1/100*K24*K24))</f>
+        <v>361.36727272727262</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="H14:H16"/>
@@ -1677,14 +1757,6 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
